--- a/da/userdata.xlsx
+++ b/da/userdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\work\nantang\pj\da\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\work\nantang\constellar\da\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA95167-4BB3-4E4D-9CE3-ECCF1E133075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B52B01-5736-46E1-9753-8D2D165BB035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>帖子1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,12 +212,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>用户</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>A</a:t>
+              <a:t>Guest</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
@@ -240,7 +244,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -254,6 +258,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>用户A!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>点赞</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -313,7 +328,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F408-4AD6-868E-CE0E25355417}"/>
+              <c16:uniqueId val="{00000000-8EA7-47C4-B7F7-1B3397AD3C69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -326,8 +341,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="910524896"/>
-        <c:axId val="910534496"/>
+        <c:axId val="922492560"/>
+        <c:axId val="922493040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -335,6 +350,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>用户A!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>浏览时长</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -397,7 +423,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F408-4AD6-868E-CE0E25355417}"/>
+              <c16:uniqueId val="{00000001-8EA7-47C4-B7F7-1B3397AD3C69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -411,11 +437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="910524896"/>
-        <c:axId val="910534496"/>
+        <c:axId val="922492560"/>
+        <c:axId val="922493040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="910524896"/>
+        <c:axId val="922492560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,15 +484,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="910534496"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="922493040"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="910534496"/>
+        <c:axId val="922493040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,8 +542,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="910524896"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="922492560"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -638,12 +662,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>用户</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>B</a:t>
+              <a:t>User</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
@@ -674,7 +694,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -688,6 +708,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>用户A!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>点赞</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -747,7 +778,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8119-453D-B8D6-D6BEB1734383}"/>
+              <c16:uniqueId val="{00000000-AB20-402D-812D-4E0F74BE94AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -760,8 +791,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="910532096"/>
-        <c:axId val="910512416"/>
+        <c:axId val="917908256"/>
+        <c:axId val="929510560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -769,6 +800,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>用户A!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>浏览时长</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -831,7 +873,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8119-453D-B8D6-D6BEB1734383}"/>
+              <c16:uniqueId val="{00000001-AB20-402D-812D-4E0F74BE94AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -845,11 +887,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="910532096"/>
-        <c:axId val="910512416"/>
+        <c:axId val="917908256"/>
+        <c:axId val="929510560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="910532096"/>
+        <c:axId val="917908256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,15 +934,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="910512416"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="929510560"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="910512416"/>
+        <c:axId val="929510560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,8 +992,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="910532096"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="917908256"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1117,6 +1157,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>用户A!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>点赞</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1176,7 +1227,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8DC6-4014-8B35-5B5A9B963D23}"/>
+              <c16:uniqueId val="{00000000-339C-4879-BD89-D3E49F4ABEC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1189,8 +1240,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1045504784"/>
-        <c:axId val="1045509104"/>
+        <c:axId val="1500779312"/>
+        <c:axId val="1500780272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1198,6 +1249,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>用户A!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>浏览时长</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1260,7 +1322,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8DC6-4014-8B35-5B5A9B963D23}"/>
+              <c16:uniqueId val="{00000001-339C-4879-BD89-D3E49F4ABEC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1274,11 +1336,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1045504784"/>
-        <c:axId val="1045509104"/>
+        <c:axId val="1500779312"/>
+        <c:axId val="1500780272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1045504784"/>
+        <c:axId val="1500779312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,15 +1383,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045509104"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1500780272"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1045509104"/>
+        <c:axId val="1500780272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1380,8 +1441,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045504784"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1500779312"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3139,23 +3199,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE5B4F5-BC07-4A68-5F1F-223EED1AE194}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA752513-1DAA-BA1C-AF96-543607A5A1F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,23 +3235,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>320675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
+        <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A2E61C-A32D-4E81-DD1B-90E6BBECA5C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4BFFC0-98A9-737D-DF31-0BAAB9CE9406}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,23 +3271,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>41275</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="图表 7">
+        <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AB2E22-5114-DB91-EB53-9F02A372EE42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E369DC-1DD4-B0F2-04D8-921D6834D24C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3574,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A20" sqref="A20:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3524,7 +3584,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -3646,7 +3706,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
